--- a/src/main/resources/画像追加サンプルテンプレート.xlsx
+++ b/src/main/resources/画像追加サンプルテンプレート.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shingo/develop/sandbox/etc/poi-sample/src/main/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D23A52CB-473B-0348-98DA-40E44F752880}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{868D03C4-3104-974A-BC00-0BACD6AB9B39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" xr2:uid="{CE3B4EA4-D7A8-EB45-9465-8740FF99B987}"/>
   </bookViews>
@@ -20,9 +20,16 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>画像追加サンプル</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>この辺に画像が追加されます。</t>
+    <rPh sb="4" eb="6">
+      <t>ガゾウ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -100,6 +107,86 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="image-container">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6FA9296-F6AF-6515-8648-CAA62C4DB2E4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5207000" y="952500"/>
+          <a:ext cx="4724400" cy="4724400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ここに画像が追加されます。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -389,19 +476,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6156CBA4-964B-A24C-A42E-0DB6A11E173B}">
-  <dimension ref="B2"/>
+  <dimension ref="B2:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="2.83203125" defaultRowHeight="14"/>
+  <cols>
+    <col min="23" max="50" width="10.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:2">
+    <row r="2" spans="2:3">
       <c r="B2" s="1" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3">
+      <c r="C5" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>